--- a/UserLogin.xlsx
+++ b/UserLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mado\Documents\C_Desktop\userCharts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440B7886-0CD0-4833-89A1-2F048EFF3A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCC4055-505D-440C-925F-6817A8B3791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9EDDE09F-3871-4226-9552-6CDF169C708B}"/>
   </bookViews>
@@ -434,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4224EE5-7E72-4FBA-9D3B-547B54CC3FE0}">
   <dimension ref="A1:B5375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
